--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_22_9.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_22_9.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1237561.941556597</v>
+        <v>-1240118.257383847</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12574568.46673313</v>
+        <v>12574568.46673314</v>
       </c>
     </row>
     <row r="8">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -665,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>36.87430119104197</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -674,7 +674,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>4.79200477734943</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292595</v>
@@ -707,19 +707,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734093895</v>
+        <v>0.1429098734102899</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>9.474779712677247</v>
+        <v>12.55107979836498</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -896,7 +896,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -905,10 +905,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>250.1721439812859</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>45.84164484594844</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
@@ -947,7 +947,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1054,25 +1054,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>46.81382800565972</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>71.67037196991727</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1117,7 +1117,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1139,10 +1139,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
@@ -1151,7 +1151,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1190,16 +1190,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>146.3190972596848</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>57.29212650174169</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,25 +1288,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>92.70430892777175</v>
+        <v>79.63406596934439</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -1351,13 +1351,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1540,7 +1540,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1573,22 +1573,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>186.9166231085223</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>201.7490817309711</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1777,10 +1777,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,13 +1813,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>91.89996056624706</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>215.7183996732927</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1859,7 +1859,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444144</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2014,13 +2014,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>19.91555826189057</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>42.54416032354801</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2248,7 +2248,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>40.36264995190481</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>19.86507844888251</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2476,13 +2476,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>110.0177171766861</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2494,7 +2494,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>31.26260713376574</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2570,7 +2570,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.154082144415</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2728,7 +2728,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428253</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2849,7 +2849,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701364</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2950,16 +2950,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3004,13 +3004,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>170.7224276065519</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>229.2938944146487</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3044,7 +3044,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.154082144415</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3092,7 +3092,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3205,7 +3205,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.9811888265256</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808199</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3427,7 +3427,7 @@
         <v>142.9621736065882</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261725</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E37" t="n">
         <v>122.1493151545295</v>
@@ -3442,7 +3442,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652589</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808199</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808199</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3715,7 +3715,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972045</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V40" t="n">
         <v>227.8529958317883</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,10 +3898,10 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
         <v>122.1493151545295</v>
@@ -3910,7 +3910,7 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
         <v>116.0100653541842</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4138,22 +4138,22 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G46" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4304,40 +4304,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1308.370295943747</v>
+        <v>1638.36025634881</v>
       </c>
       <c r="C2" t="n">
-        <v>939.4077790033352</v>
+        <v>1269.397739408399</v>
       </c>
       <c r="D2" t="n">
-        <v>939.4077790033352</v>
+        <v>1269.397739408399</v>
       </c>
       <c r="E2" t="n">
-        <v>939.4077790033352</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>528.4218742137277</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>113.3494240587242</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
@@ -4346,34 +4346,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3119.628073993395</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>3119.628073993395</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450753</v>
+        <v>2788.565186649824</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180638</v>
+        <v>2788.565186649824</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.509627919559</v>
+        <v>2415.099428388744</v>
       </c>
       <c r="Y2" t="n">
-        <v>1308.370295943747</v>
+        <v>2024.960096412932</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614559</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>936.573581468607</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064745</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080125</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986299</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291642</v>
+        <v>765.1517452158133</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>943.7005868594143</v>
+        <v>530.2513404403938</v>
       </c>
       <c r="C4" t="n">
-        <v>774.7644039315074</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="D4" t="n">
-        <v>624.6477645191717</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959802</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H4" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4492,46 +4492,46 @@
         <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>592.44817380124</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>936.605219400789</v>
+        <v>799.6142115756892</v>
       </c>
       <c r="N4" t="n">
-        <v>1107.914056430636</v>
+        <v>1107.914056430628</v>
       </c>
       <c r="O4" t="n">
-        <v>1407.24365535105</v>
+        <v>1407.243655351041</v>
       </c>
       <c r="P4" t="n">
-        <v>1639.851155784709</v>
+        <v>1639.8511557847</v>
       </c>
       <c r="Q4" t="n">
-        <v>1717.461451937224</v>
+        <v>1717.461451937215</v>
       </c>
       <c r="R4" t="n">
-        <v>1627.630994694752</v>
+        <v>1717.461451937215</v>
       </c>
       <c r="S4" t="n">
-        <v>1435.945110521578</v>
+        <v>1717.461451937215</v>
       </c>
       <c r="T4" t="n">
-        <v>1426.374625963319</v>
+        <v>1704.783593555029</v>
       </c>
       <c r="U4" t="n">
-        <v>1426.374625963319</v>
+        <v>1704.783593555029</v>
       </c>
       <c r="V4" t="n">
-        <v>1171.690137757432</v>
+        <v>1450.099105349142</v>
       </c>
       <c r="W4" t="n">
-        <v>1171.690137757432</v>
+        <v>1160.681935312181</v>
       </c>
       <c r="X4" t="n">
-        <v>943.7005868594143</v>
+        <v>932.6923844141637</v>
       </c>
       <c r="Y4" t="n">
-        <v>943.7005868594143</v>
+        <v>711.8998052706336</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2144.883770458458</v>
+        <v>1565.440264581603</v>
       </c>
       <c r="C5" t="n">
-        <v>1775.921253518047</v>
+        <v>1565.440264581603</v>
       </c>
       <c r="D5" t="n">
-        <v>1417.655554911296</v>
+        <v>1207.174565974852</v>
       </c>
       <c r="E5" t="n">
-        <v>1031.867302313052</v>
+        <v>821.3863133766081</v>
       </c>
       <c r="F5" t="n">
-        <v>779.1681669784198</v>
+        <v>410.4004085870005</v>
       </c>
       <c r="G5" t="n">
         <v>364.0957168234162</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912105</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810571</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329466</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001391</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060173</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.52802693951</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V5" t="n">
-        <v>2884.252265792695</v>
+        <v>2678.274518176919</v>
       </c>
       <c r="W5" t="n">
-        <v>2531.48361052258</v>
+        <v>2325.505862906804</v>
       </c>
       <c r="X5" t="n">
-        <v>2531.48361052258</v>
+        <v>1952.040104645725</v>
       </c>
       <c r="Y5" t="n">
-        <v>2531.48361052258</v>
+        <v>1952.040104645725</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064542</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.453584903148</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>680.3679798527295</v>
+        <v>410.1326375818733</v>
       </c>
       <c r="C7" t="n">
-        <v>511.4317969248226</v>
+        <v>410.1326375818733</v>
       </c>
       <c r="D7" t="n">
-        <v>361.3151575124869</v>
+        <v>260.0159981695375</v>
       </c>
       <c r="E7" t="n">
-        <v>213.4020639300938</v>
+        <v>260.0159981695375</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218342</v>
+        <v>260.0159981695375</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>260.0159981695375</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>113.7988113873953</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U7" t="n">
-        <v>1854.900232967364</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="V7" t="n">
-        <v>1600.215744761477</v>
+        <v>1101.990851592604</v>
       </c>
       <c r="W7" t="n">
-        <v>1310.798574724517</v>
+        <v>812.5736815556431</v>
       </c>
       <c r="X7" t="n">
-        <v>1082.809023826499</v>
+        <v>812.5736815556431</v>
       </c>
       <c r="Y7" t="n">
-        <v>862.0164446829692</v>
+        <v>591.781102412113</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2345.167438673965</v>
+        <v>1513.341883274785</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1144.379366334374</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>786.1136677276232</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>786.1136677276232</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I8" t="n">
         <v>66.5121164321834</v>
@@ -4808,10 +4808,10 @@
         <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4838,16 +4838,16 @@
         <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2755.806928794324</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2403.038273524209</v>
+        <v>2276.946973511677</v>
       </c>
       <c r="X8" t="n">
-        <v>2403.038273524209</v>
+        <v>1903.481215250597</v>
       </c>
       <c r="Y8" t="n">
-        <v>2345.167438673965</v>
+        <v>1513.341883274785</v>
       </c>
     </row>
     <row r="9">
@@ -4887,7 +4887,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>720.5449729949386</v>
+        <v>560.1023745137405</v>
       </c>
       <c r="C10" t="n">
-        <v>551.6087900670317</v>
+        <v>391.1661915858336</v>
       </c>
       <c r="D10" t="n">
-        <v>457.9680739783734</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="E10" t="n">
-        <v>310.0549803959802</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="F10" t="n">
-        <v>310.0549803959802</v>
+        <v>163.837793613838</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959802</v>
+        <v>163.837793613838</v>
       </c>
       <c r="H10" t="n">
         <v>163.837793613838</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U10" t="n">
-        <v>1424.011591242373</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="V10" t="n">
-        <v>1169.327103036486</v>
+        <v>1259.157560278958</v>
       </c>
       <c r="W10" t="n">
-        <v>1169.327103036486</v>
+        <v>969.7403902419976</v>
       </c>
       <c r="X10" t="n">
-        <v>941.3375521384687</v>
+        <v>741.7508393439803</v>
       </c>
       <c r="Y10" t="n">
-        <v>720.5449729949386</v>
+        <v>741.7508393439803</v>
       </c>
     </row>
     <row r="11">
@@ -5021,25 +5021,25 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
@@ -5121,19 +5121,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N12" t="n">
-        <v>1670.092171589158</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>2222.001901828445</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1016.58045691144</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C13" t="n">
-        <v>847.6442739835331</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711974</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888043</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
         <v>235.5284942057738</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>2191.112710026075</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U13" t="n">
-        <v>2191.112710026075</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V13" t="n">
-        <v>1936.428221820188</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W13" t="n">
-        <v>1647.011051783227</v>
+        <v>1479.814952498107</v>
       </c>
       <c r="X13" t="n">
-        <v>1419.02150088521</v>
+        <v>1251.82540160009</v>
       </c>
       <c r="Y13" t="n">
-        <v>1198.22892174168</v>
+        <v>1031.03282245656</v>
       </c>
     </row>
     <row r="14">
@@ -5270,25 +5270,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5352,25 +5352,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>707.672526468518</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C16" t="n">
-        <v>538.7363435406111</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D16" t="n">
-        <v>388.6197041282753</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E16" t="n">
-        <v>240.7066105458822</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5437,22 +5437,22 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038334</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797736</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.96308358026</v>
@@ -5461,25 +5461,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235164</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>2171.280006238955</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U16" t="n">
-        <v>1882.204779583153</v>
+        <v>2009.464245195835</v>
       </c>
       <c r="V16" t="n">
-        <v>1627.520291377266</v>
+        <v>1754.779756989948</v>
       </c>
       <c r="W16" t="n">
-        <v>1338.103121340305</v>
+        <v>1465.362586952987</v>
       </c>
       <c r="X16" t="n">
-        <v>1110.113570442288</v>
+        <v>1237.37303605497</v>
       </c>
       <c r="Y16" t="n">
-        <v>889.3209912987577</v>
+        <v>1016.58045691144</v>
       </c>
     </row>
     <row r="17">
@@ -5492,70 +5492,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362692</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,25 +5586,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5647,55 +5647,55 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876688</v>
+        <v>762.547769317909</v>
       </c>
       <c r="C19" t="n">
-        <v>411.9631215597619</v>
+        <v>593.6115863900021</v>
       </c>
       <c r="D19" t="n">
-        <v>261.8464821474262</v>
+        <v>593.6115863900021</v>
       </c>
       <c r="E19" t="n">
-        <v>113.9333885650331</v>
+        <v>445.698492807609</v>
       </c>
       <c r="F19" t="n">
-        <v>113.9333885650331</v>
+        <v>445.698492807609</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>278.5023935224889</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>136.790562364687</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
         <v>2264.108249235165</v>
@@ -5713,10 +5713,10 @@
         <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614387</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179085</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="20">
@@ -5747,22 +5747,22 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5826,25 +5826,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.118720444889</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O21" t="n">
-        <v>2366.028450684176</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>721.7774158311365</v>
+        <v>762.547769317909</v>
       </c>
       <c r="C22" t="n">
-        <v>552.8412329032296</v>
+        <v>593.6115863900021</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>443.4949469776664</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>443.4949469776664</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
         <v>235.5284942057738</v>
@@ -5908,52 +5908,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>1124.218459804906</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y22" t="n">
-        <v>903.4258806613763</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="23">
@@ -5966,61 +5966,61 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111727</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6066,28 +6066,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438171</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2415.384692536053</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2415.384692536053</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2415.384692536053</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>2126.309465880251</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1871.624977674364</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168625</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362699</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192608</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,28 +6297,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797191</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797191</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>352.5519571452603</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>949.9304447718124</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.528408326419</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400721</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121652</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121652</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121652</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121652</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270452</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>916.294644713842</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703119</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6449,61 +6449,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168618</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797191</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797191</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797191</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797191</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438167</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,16 +6595,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>697.5276345711974</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>697.5276345711974</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>697.5276345711974</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
         <v>402.7245934908939</v>
@@ -6613,58 +6613,58 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235166</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258107</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1872.059887685832</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1617.375399479945</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1327.958229442984</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>1099.968678544967</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>879.1760994014371</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168625</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362699</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797191</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797191</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797191</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438167</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656818</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H34" t="n">
-        <v>151.3734194384018</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6911,52 +6911,52 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192603</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111718</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7011,22 +7011,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438167</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="O36" t="n">
         <v>1859.536823237711</v>
@@ -7069,10 +7069,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656818</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D37" t="n">
         <v>656.9646031150025</v>
@@ -7087,7 +7087,7 @@
         <v>268.5553036345477</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384021</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7096,10 +7096,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7160,25 +7160,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192383</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111695</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.852361107579</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
         <v>2206.558663014778</v>
@@ -7187,13 +7187,13 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438167</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C40" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G40" t="n">
         <v>268.5553036345477</v>
@@ -7327,16 +7327,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7345,19 +7345,19 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
@@ -7366,7 +7366,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
         <v>1483.798285518751</v>
@@ -7406,25 +7406,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192383</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111695</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.852361107579</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438167</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319317</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656811</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150016</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942648</v>
       </c>
       <c r="F43" t="n">
         <v>411.2214559580113</v>
@@ -7567,13 +7567,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
         <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7582,37 +7582,37 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931275</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="44">
@@ -7643,25 +7643,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192383</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111695</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.852361107579</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,22 +7722,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468473</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C46" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7804,13 +7804,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954151</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K46" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7825,28 +7825,28 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
         <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>4.308775558570233e-13</v>
+        <v>-4.695133171139787e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8140,13 +8140,13 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
-        <v>122.3397960109974</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>178.5096609094456</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>138.3747553788797</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -22553,7 +22553,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>345.0560688812198</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -22562,7 +22562,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>289.8157596099711</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22595,19 +22595,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -22702,28 +22702,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,13 +22750,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>210.0741695634919</v>
+        <v>206.9978694778042</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
@@ -22765,13 +22765,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922704</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856724</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,22 +23461,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>30.48882721876595</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>84.77391660561992</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23665,10 +23665,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23701,13 +23701,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>125.5054897610412</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>70.46607471595149</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23887,13 +23887,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23902,13 +23902,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>145.6085800303783</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>38.72167599501751</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24136,7 +24136,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>105.0583980710264</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>205.8445769401546</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24364,13 +24364,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>35.11263957635595</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194133</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24838,16 +24838,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24892,13 +24892,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>115.4620467826922</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25315,7 +25315,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>2.415845301584341e-13</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1244317.33175753</v>
+        <v>1244317.331757531</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1244317.33175753</v>
+        <v>1244317.331757531</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1244317.331757531</v>
+        <v>1244317.33175753</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1244317.331757531</v>
+        <v>1244317.33175753</v>
       </c>
     </row>
     <row r="12">
@@ -26335,10 +26335,10 @@
         <v>181607.9849302513</v>
       </c>
       <c r="J2" t="n">
+        <v>181607.9849302513</v>
+      </c>
+      <c r="K2" t="n">
         <v>181607.9849302514</v>
-      </c>
-      <c r="K2" t="n">
-        <v>181607.9849302513</v>
       </c>
       <c r="L2" t="n">
         <v>184734.3982194636</v>
@@ -26347,13 +26347,13 @@
         <v>184734.3982194636</v>
       </c>
       <c r="N2" t="n">
-        <v>184734.3982194637</v>
+        <v>184734.3982194636</v>
       </c>
       <c r="O2" t="n">
-        <v>184734.3982194637</v>
+        <v>184734.3982194636</v>
       </c>
       <c r="P2" t="n">
-        <v>184734.3982194637</v>
+        <v>184734.3982194636</v>
       </c>
     </row>
     <row r="3">
@@ -26378,25 +26378,25 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972776</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>19427.71799363172</v>
+        <v>19427.7179936316</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551175</v>
+        <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11234.60594742189</v>
+        <v>11234.60594742175</v>
       </c>
       <c r="C4" t="n">
-        <v>93403.78684820636</v>
+        <v>93403.78684820626</v>
       </c>
       <c r="D4" t="n">
         <v>93403.78684820639</v>
@@ -26430,7 +26430,7 @@
         <v>14216.75207685505</v>
       </c>
       <c r="G4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685502</v>
       </c>
       <c r="H4" t="n">
         <v>14216.75207685505</v>
@@ -26439,25 +26439,25 @@
         <v>14216.75207685505</v>
       </c>
       <c r="J4" t="n">
-        <v>14216.75207685499</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="K4" t="n">
-        <v>14216.75207685498</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="L4" t="n">
-        <v>22207.61133994844</v>
+        <v>22207.61133994853</v>
       </c>
       <c r="M4" t="n">
-        <v>22207.6113399485</v>
+        <v>22207.61133994851</v>
       </c>
       <c r="N4" t="n">
-        <v>22207.6113399485</v>
+        <v>22207.61133994854</v>
       </c>
       <c r="O4" t="n">
-        <v>22207.61133994851</v>
+        <v>22207.61133994852</v>
       </c>
       <c r="P4" t="n">
-        <v>22207.61133994851</v>
+        <v>22207.61133994852</v>
       </c>
     </row>
     <row r="5">
@@ -26491,10 +26491,10 @@
         <v>101122.5298239071</v>
       </c>
       <c r="J5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="K5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="L5" t="n">
         <v>103164.1158539154</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1295586.365431518</v>
+        <v>-1295946.448447236</v>
       </c>
       <c r="C6" t="n">
-        <v>-16603.32919013586</v>
+        <v>-16603.32919013577</v>
       </c>
       <c r="D6" t="n">
-        <v>-16603.32919013576</v>
+        <v>-16603.32919013564</v>
       </c>
       <c r="E6" t="n">
-        <v>-259143.7587778661</v>
+        <v>-259178.4967033018</v>
       </c>
       <c r="F6" t="n">
-        <v>66268.70302948916</v>
+        <v>66233.9651040535</v>
       </c>
       <c r="G6" t="n">
-        <v>66268.70302948916</v>
+        <v>66233.96510405328</v>
       </c>
       <c r="H6" t="n">
-        <v>66268.70302948919</v>
+        <v>66233.96510405344</v>
       </c>
       <c r="I6" t="n">
-        <v>66268.70302948893</v>
+        <v>66233.96510405367</v>
       </c>
       <c r="J6" t="n">
-        <v>-151262.4993677883</v>
+        <v>-151297.2372932241</v>
       </c>
       <c r="K6" t="n">
-        <v>66268.70302948917</v>
+        <v>66233.96510405358</v>
       </c>
       <c r="L6" t="n">
-        <v>39934.95303196801</v>
+        <v>39934.95303196806</v>
       </c>
       <c r="M6" t="n">
-        <v>-25692.35690991205</v>
+        <v>-25692.35690991218</v>
       </c>
       <c r="N6" t="n">
-        <v>59362.67102559979</v>
+        <v>59362.67102559972</v>
       </c>
       <c r="O6" t="n">
-        <v>59362.67102559975</v>
+        <v>59362.67102559973</v>
       </c>
       <c r="P6" t="n">
-        <v>59362.67102559978</v>
+        <v>59362.67102559973</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="3">
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022925</v>
@@ -26802,7 +26802,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26811,13 +26811,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26972,13 +26972,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27616,7 +27616,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27625,10 +27625,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>156.7039017604255</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>365.080080807505</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27667,7 +27667,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -27679,7 +27679,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27774,25 +27774,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>49.53859240417837</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,16 +27819,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>214.5414662356956</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27837,7 +27837,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27859,10 +27859,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27910,16 +27910,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>202.9218714577282</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>328.9458121543119</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,25 +28008,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>55.91116409044061</v>
+        <v>68.98140704886796</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28071,13 +28071,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28090,7 +28090,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28105,7 +28105,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28260,13 +28260,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>-1.508245380440106e-12</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>-1.696776052995119e-12</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28509,7 +28509,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>-9.426533627750662e-13</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -28579,7 +28579,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29569,7 +29569,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>-1.463149601477198e-12</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -29764,7 +29764,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29812,7 +29812,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203968</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203968</v>
       </c>
     </row>
     <row r="38">
@@ -30271,7 +30271,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203968</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
   </sheetData>
@@ -31607,7 +31607,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
         <v>593.9283018233475</v>
@@ -31622,7 +31622,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
@@ -31841,7 +31841,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
@@ -31850,13 +31850,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>468.3778278510275</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -32072,16 +32072,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32090,10 +32090,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,31 +32303,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32339,13 +32339,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,34 +32540,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>593.5422977113961</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32576,13 +32576,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>164.9290651940687</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,34 +33014,34 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>399.9031616963271</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071787</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33050,13 +33050,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P28" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622656</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071787</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P31" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622656</v>
+        <v>573.8098963904297</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437245</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P34" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043711</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622656</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071787</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437245</v>
+        <v>483.3274636075166</v>
       </c>
       <c r="P36" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.015579806721</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622656</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437245</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.015579806721</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622656</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.015579806721</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,31 +34436,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422587</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565758</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34472,13 +34472,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P46" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34860,13 +34860,13 @@
         <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>279.6224666396411</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230783</v>
+        <v>311.413984701958</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226398</v>
@@ -35255,7 +35255,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
         <v>451.7942679013292</v>
@@ -35270,7 +35270,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
@@ -35498,13 +35498,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>334.4034204366973</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35720,16 +35720,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35738,10 +35738,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35805,7 +35805,7 @@
         <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409634</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
         <v>394.3420143191314</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,25 +35957,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,28 +36194,28 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>462.2005856280628</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,28 +36668,28 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>261.3487819164529</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238455</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402472</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238455</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402472</v>
+        <v>431.6758624684114</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992801</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,25 +37224,25 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K34" t="n">
         <v>288.6172359016746</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P34" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q34" t="n">
         <v>144.686904791938</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.866084390239</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402472</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238455</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992801</v>
+        <v>340.7312191630721</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789216</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,25 +37461,25 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K37" t="n">
         <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P37" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q37" t="n">
         <v>144.686904791938</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236315111</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402472</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992801</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,25 +37698,25 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K40" t="n">
         <v>288.6172359016746</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P40" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q40" t="n">
         <v>144.686904791938</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236315111</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402472</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37938,19 +37938,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236315111</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,25 +38090,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678997</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121313</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38175,19 +38175,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
